--- a/documentation/SQL Schema.xlsx
+++ b/documentation/SQL Schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadid/GitHub/ETL/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86D4D4-961B-6C45-8568-9FCD2582CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31DD67C-A904-BD49-A77B-593C18BCFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1920" windowWidth="26800" windowHeight="15700" xr2:uid="{7B784AE3-7CEF-174C-9C36-B06F6B5B9956}"/>
+    <workbookView xWindow="-26120" yWindow="-26520" windowWidth="33000" windowHeight="24640" xr2:uid="{7B784AE3-7CEF-174C-9C36-B06F6B5B9956}"/>
   </bookViews>
   <sheets>
     <sheet name="ETL" sheetId="1" r:id="rId1"/>
@@ -829,8 +829,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="187" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>

--- a/documentation/SQL Schema.xlsx
+++ b/documentation/SQL Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadid/GitHub/ETL/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31DD67C-A904-BD49-A77B-593C18BCFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEFE22-54B4-224E-955B-E354B8201FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26120" yWindow="-26520" windowWidth="33000" windowHeight="24640" xr2:uid="{7B784AE3-7CEF-174C-9C36-B06F6B5B9956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>Transformed Data</t>
   </si>
@@ -128,9 +128,6 @@
     <t>date, avg_run_gct_ms, avg_run_pwr_w, avg_run_spd_kmh, run_stride_len_m, run_vert_osc_cm</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
     <t>963, 11</t>
   </si>
   <si>
@@ -140,33 +137,12 @@
     <t>activity_id</t>
   </si>
   <si>
-    <t>5, 2</t>
-  </si>
-  <si>
-    <t>sport_type_id, sport_type</t>
-  </si>
-  <si>
-    <t>sport_type_id</t>
-  </si>
-  <si>
-    <t>4, 2</t>
-  </si>
-  <si>
-    <t>gear_id, gear_name</t>
-  </si>
-  <si>
-    <t>gear_id</t>
-  </si>
-  <si>
     <t>963, 9</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>sport_type_id, gear_id</t>
-  </si>
-  <si>
     <t>2941, 8</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Likes/Dislikes</t>
-  </si>
-  <si>
     <t>9819, 9</t>
   </si>
   <si>
@@ -191,21 +164,12 @@
     <t>published_at, playlist, source, video_id, title, description, thumbnail_url, video_owner_channel_title, channel_id</t>
   </si>
   <si>
-    <t>Subscriptions</t>
-  </si>
-  <si>
     <t>published_at, resource_id_channel_id, title, description, thumbnail_url</t>
   </si>
   <si>
-    <t>Activities</t>
-  </si>
-  <si>
     <t>7383, 3</t>
   </si>
   <si>
-    <t>46, 2</t>
-  </si>
-  <si>
     <t>date_time</t>
   </si>
   <si>
@@ -215,21 +179,9 @@
     <t>id, date_time, activity_id</t>
   </si>
   <si>
-    <t>activity_id, activity_name</t>
-  </si>
-  <si>
-    <t>date_time, activity_id</t>
-  </si>
-  <si>
     <t>activity_id,, external_id, device_name, name, sport_type_id, start_date, gear_id, private_note, polyline</t>
   </si>
   <si>
-    <t>Mood, Activities List</t>
-  </si>
-  <si>
-    <t>Performance Metrics, Sport Type, Activity</t>
-  </si>
-  <si>
     <t>date, hour</t>
   </si>
   <si>
@@ -245,9 +197,6 @@
     <t>strava_performance_metrics.xlsx</t>
   </si>
   <si>
-    <t>strava_gear.xlsx</t>
-  </si>
-  <si>
     <t>strava_activity.xlsx</t>
   </si>
   <si>
@@ -260,9 +209,6 @@
     <t>daylio_activities.xlsx</t>
   </si>
   <si>
-    <t>daylio_activities_list.xlsx</t>
-  </si>
-  <si>
     <t>apple_blood_glucose.xlsx</t>
   </si>
   <si>
@@ -329,15 +275,6 @@
     <t>published_at (TIMESTAMP, NOT NULL, Primary Key), playlist (VARCHAR(10)), source (VARCHAR(10)), video_id (VARCHAR(20)), title (TEXT), description (TEXT), thumbnail_url (VARCHAR(255)), video_owner_channel_title (VARCHAR(60)), channel_id (VARCHAR(30))</t>
   </si>
   <si>
-    <t>gear_id (TINYINT UNSIGNED, NOT NULL, Primary Key)), gear_name (VARCHAR(50))</t>
-  </si>
-  <si>
-    <t>sport_type_id (TINYINT UNSIGNED, NOT NULL, Primary Key)), sport_type (VARCHAR(50))</t>
-  </si>
-  <si>
-    <t>activity_id (TINYINT UNSIGNED, NOT NULL, Primary Key), activity_name (VARCHAR(30), NOT NULL)</t>
-  </si>
-  <si>
     <t>date_time (TIMESTAMP, NOT NULL, Primary Key), mood (VARCHAR(20), , NOT NULL), note_title (TEXT), note (TEXT)</t>
   </si>
   <si>
@@ -350,73 +287,61 @@
     <t>transaction_id (INT UNSIGNED, NOT NULL, Primary Key), category_a (VARCHAR(50), NOT NULL), category_b (VARCHAR(50), NOT NULL), outlet (VARCHAR(50), NOT NULL), description (TEXT), amount (DECIMAL(7.2), date (DATE, NOT NULL), period (VARCHAR(8))</t>
   </si>
   <si>
-    <t>walking_metrics</t>
-  </si>
-  <si>
-    <t>daily_activity</t>
-  </si>
-  <si>
-    <t>blood_glucose</t>
-  </si>
-  <si>
-    <t>heart_rate</t>
-  </si>
-  <si>
-    <t>fitness_metrics</t>
-  </si>
-  <si>
-    <t>low_hr_events</t>
-  </si>
-  <si>
-    <t>running_metrics</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>performance_metrics</t>
-  </si>
-  <si>
-    <t>sport_type</t>
-  </si>
-  <si>
-    <t>gear</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
     <t>youtube_likes_dislikes</t>
   </si>
   <si>
-    <t>youtube_subs</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>activities</t>
-  </si>
-  <si>
-    <t>activities_list</t>
-  </si>
-  <si>
-    <t>id (SMALLINT UNSIGNED, NOT NULL, Primary Key), date_time (TIMESTAMP, , NOT NULL, FOREIGN KEY (date_time) REFERENCES mood(date_time)), activity_id (TINYINT UNSIGNED, NOT NULL, FOREIGN KEY (activity_id) REFERENCES activities_list(activity_id))</t>
-  </si>
-  <si>
-    <t>activity_id (BIGINT UNSIGNED, NOT NULL, Primary Key), external_id (VARCHAR(100)), device_name (VARCHAR(50)), name (VARCHAR(50)), sport_type_id (TINYINT UNSIGNED NOT NULL, FOREIGN KEY (sport_type_id) REFERENCES sport_type(sport_type_id)), start_date (TIMESTAMP), gear_id (TINYINT UNSIGNED NULL, FOREIGN KEY (gear_id) REFERENCES gear(gear_id)), private_note (VARCHAR(100)), polyline (TEXT)</t>
-  </si>
-  <si>
-    <t>activity_id (BIGINT UNSIGNED, NOT NULL, Primary Key), distance (DECIMAL(6,1)), moving_time (DECIMAL(5,2)), elapsed_time (DECIMAL(5,2)), average_speed (DECIMAL(4,3)), max_speed (DECIMAL(5,3)), average_cadence (DECIMAL(4,1)), average_heartrate (DECIMAL(4,1)), max_heartrate (TINYINT UNSIGNED), calories (DECIMAL(5,1)), suffer_score (TINYINT UNSIGNED)</t>
-  </si>
-  <si>
-    <t>strava_sport_type.xlsx</t>
+    <t>activity_id (BIGINT UNSIGNED, NOT NULL, Primary Key), external_id (VARCHAR(100)), device_name (VARCHAR(50)), activity_name (VARCHAR(50)), sport_type (VARCHAR(50)), start_date (TIMESTAMP), gear_name (VARCHAR(50)), private_note (VARCHAR(100)), polyline (TEXT)</t>
+  </si>
+  <si>
+    <t>activity_id (BIGINT UNSIGNED NOT NULL PRIMARY KEY, FOREIGN KEY (activity_id) REFERENCES strava_activity(activity_id)), distance (DECIMAL(6,1)), moving_time (DECIMAL(5,2)), elapsed_time (DECIMAL(5,2)), average_speed (DECIMAL(4,3)), max_speed (DECIMAL(5,3)), average_cadence (DECIMAL(4,1)), average_heartrate (DECIMAL(4,1)), max_heartrate (TINYINT UNSIGNED), calories (DECIMAL(5,1)), suffer_score (TINYINT UNSIGNED)</t>
+  </si>
+  <si>
+    <t>id (SMALLINT UNSIGNED, NOT NULL, Primary Key), date_time (TIMESTAMP, , NOT NULL, FOREIGN KEY (date_time) REFERENCES mood(date_time)), activities (VARCHAR(50))</t>
+  </si>
+  <si>
+    <t>youtube_subscriptions</t>
+  </si>
+  <si>
+    <t>apple_walking_metrics</t>
+  </si>
+  <si>
+    <t>apple_daily_activity</t>
+  </si>
+  <si>
+    <t>apple_blood_glucose</t>
+  </si>
+  <si>
+    <t>apple_heart_rate</t>
+  </si>
+  <si>
+    <t>apple_fitness_metrics</t>
+  </si>
+  <si>
+    <t>apple_low_hr_events</t>
+  </si>
+  <si>
+    <t>apple_running_metrics</t>
+  </si>
+  <si>
+    <t>apple_sleep</t>
+  </si>
+  <si>
+    <t>apple_steps</t>
+  </si>
+  <si>
+    <t>strava_activity</t>
+  </si>
+  <si>
+    <t>strava_performance_metrics</t>
+  </si>
+  <si>
+    <t>spend_transactions</t>
+  </si>
+  <si>
+    <t>daylio_mood</t>
+  </si>
+  <si>
+    <t>daylio_activities</t>
   </si>
 </sst>
 </file>
@@ -512,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}" name="Table1" displayName="Table1" ref="B2:J21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B2:J21" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}" name="Table1" displayName="Table1" ref="B2:J18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B2:J18" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8409B336-F9AD-EF40-BF44-385B92D6C375}" name="Data Source" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{2C21C9A9-CF19-8146-AC7B-184CF70F17B0}" name="Transformed Data" dataDxfId="7"/>
@@ -827,10 +752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A791A2-E7A4-A149-9809-B096DB52D5C9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -877,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -886,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -895,16 +820,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -913,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -922,16 +847,16 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -940,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -949,13 +874,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -964,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -973,16 +898,16 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -991,25 +916,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -1018,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1027,13 +952,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1042,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
@@ -1051,16 +976,16 @@
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1069,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -1078,16 +1003,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1096,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -1105,288 +1030,207 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
+      <c r="I12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="153" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>114</v>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/SQL Schema.xlsx
+++ b/documentation/SQL Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadid/GitHub/ETL/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEFE22-54B4-224E-955B-E354B8201FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C6449-EF40-EB4D-BA27-3F0703B1A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26120" yWindow="-26520" windowWidth="33000" windowHeight="24640" xr2:uid="{7B784AE3-7CEF-174C-9C36-B06F6B5B9956}"/>
+    <workbookView xWindow="18180" yWindow="-26640" windowWidth="33000" windowHeight="24640" xr2:uid="{7B784AE3-7CEF-174C-9C36-B06F6B5B9956}"/>
   </bookViews>
   <sheets>
     <sheet name="ETL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>Transformed Data</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>daylio_activities</t>
+  </si>
+  <si>
+    <t>Indexes</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -437,18 +443,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}" name="Table1" displayName="Table1" ref="B2:J18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B2:J18" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8409B336-F9AD-EF40-BF44-385B92D6C375}" name="Data Source" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C21C9A9-CF19-8146-AC7B-184CF70F17B0}" name="Transformed Data" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F30EE98A-755B-1D40-A8E9-9C983DB7DFDA}" name="Dimensions" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{41609C78-27FF-6447-8911-1A75C58B7772}" name="Field Names" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{774D6582-1ECB-004B-96C6-5E8B78040145}" name="Data Types &amp; Constraints" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A2FC6840-1B37-3645-887D-613082CA1FE4}" name="Primary Key" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{BC7362AD-9C5E-5746-97BE-10C7F2E14F76}" name="Foreign Key" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A8EBC1A1-0263-734C-B672-91B592334845}" name="Links" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{DB60B133-5EBF-2C4B-B2F3-B5187071D558}" name="File Name" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}" name="Table1" displayName="Table1" ref="B2:K18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B2:K18" xr:uid="{A4E9F293-82E8-F044-A1AA-681DBDA4F30B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8409B336-F9AD-EF40-BF44-385B92D6C375}" name="Data Source" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2C21C9A9-CF19-8146-AC7B-184CF70F17B0}" name="Transformed Data" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F30EE98A-755B-1D40-A8E9-9C983DB7DFDA}" name="Dimensions" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{41609C78-27FF-6447-8911-1A75C58B7772}" name="Field Names" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{774D6582-1ECB-004B-96C6-5E8B78040145}" name="Data Types &amp; Constraints" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A2FC6840-1B37-3645-887D-613082CA1FE4}" name="Primary Key" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BC7362AD-9C5E-5746-97BE-10C7F2E14F76}" name="Foreign Key" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A8EBC1A1-0263-734C-B672-91B592334845}" name="Links" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{DB60B133-5EBF-2C4B-B2F3-B5187071D558}" name="File Name" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{04387FD9-9D36-BF48-8A16-D84F9DDA52E6}" name="Indexes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,8 +761,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +811,9 @@
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
